--- a/projects/Project3_visualizing-real-world-data-project/Data/HK Rent Prices Clean.xlsx
+++ b/projects/Project3_visualizing-real-world-data-project/Data/HK Rent Prices Clean.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borelliandrea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borelliandrea/Ironhack/dataptams2020/projects/Project3_visualizing-real-world-data-project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B21A39-E9B3-0A41-A91B-E12D2BF97B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0553754E-0FC7-044C-A551-AE9ECA305E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="860" windowWidth="27640" windowHeight="16420" xr2:uid="{00D012F5-1A57-ED4F-B1A4-09FB9A26EEA1}"/>
+    <workbookView xWindow="440" yWindow="540" windowWidth="27640" windowHeight="16420" xr2:uid="{00D012F5-1A57-ED4F-B1A4-09FB9A26EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -86,7 +86,7 @@
     <t>&gt;160_New_Territories</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Average Rent Prices</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B060E3EB-095E-6846-BE65-46F994EEE9A7}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -506,6 +506,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -559,8 +562,8 @@
       <c r="Q2">
         <v>179</v>
       </c>
-      <c r="R2" t="s">
-        <v>17</v>
+      <c r="R2">
+        <v>191.53333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -615,8 +618,8 @@
       <c r="Q3">
         <v>169</v>
       </c>
-      <c r="R3" t="s">
-        <v>17</v>
+      <c r="R3">
+        <v>189.6</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -671,8 +674,8 @@
       <c r="Q4">
         <v>174</v>
       </c>
-      <c r="R4" t="s">
-        <v>17</v>
+      <c r="R4">
+        <v>187.66666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -727,8 +730,8 @@
       <c r="Q5">
         <v>179</v>
       </c>
-      <c r="R5" t="s">
-        <v>17</v>
+      <c r="R5">
+        <v>190.4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -783,8 +786,8 @@
       <c r="Q6">
         <v>188</v>
       </c>
-      <c r="R6" t="s">
-        <v>17</v>
+      <c r="R6">
+        <v>189.06666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -839,8 +842,8 @@
       <c r="Q7">
         <v>160</v>
       </c>
-      <c r="R7" t="s">
-        <v>17</v>
+      <c r="R7">
+        <v>185.93333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -895,8 +898,8 @@
       <c r="Q8">
         <v>175</v>
       </c>
-      <c r="R8" t="s">
-        <v>17</v>
+      <c r="R8">
+        <v>191.8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -951,8 +954,8 @@
       <c r="Q9">
         <v>174</v>
       </c>
-      <c r="R9" t="s">
-        <v>17</v>
+      <c r="R9">
+        <v>196.46666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1007,8 +1010,8 @@
       <c r="Q10">
         <v>189</v>
       </c>
-      <c r="R10" t="s">
-        <v>17</v>
+      <c r="R10">
+        <v>202.93333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1063,8 +1066,8 @@
       <c r="Q11">
         <v>179</v>
       </c>
-      <c r="R11" t="s">
-        <v>17</v>
+      <c r="R11">
+        <v>192.33333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1119,8 +1122,8 @@
       <c r="Q12">
         <v>191</v>
       </c>
-      <c r="R12" t="s">
-        <v>17</v>
+      <c r="R12">
+        <v>192.13333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1175,8 +1178,8 @@
       <c r="Q13">
         <v>188</v>
       </c>
-      <c r="R13" t="s">
-        <v>17</v>
+      <c r="R13">
+        <v>183.86666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1231,8 +1234,8 @@
       <c r="Q14">
         <v>176</v>
       </c>
-      <c r="R14" t="s">
-        <v>17</v>
+      <c r="R14">
+        <v>180.53333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1287,8 +1290,8 @@
       <c r="Q15">
         <v>158</v>
       </c>
-      <c r="R15" t="s">
-        <v>17</v>
+      <c r="R15">
+        <v>170.2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1343,8 +1346,8 @@
       <c r="Q16">
         <v>175</v>
       </c>
-      <c r="R16" t="s">
-        <v>17</v>
+      <c r="R16">
+        <v>169.93333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1399,8 +1402,8 @@
       <c r="Q17">
         <v>165</v>
       </c>
-      <c r="R17" t="s">
-        <v>17</v>
+      <c r="R17">
+        <v>166.4</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1455,8 +1458,8 @@
       <c r="Q18">
         <v>164</v>
       </c>
-      <c r="R18" t="s">
-        <v>17</v>
+      <c r="R18">
+        <v>158.66666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1511,8 +1514,8 @@
       <c r="Q19">
         <v>131</v>
       </c>
-      <c r="R19" t="s">
-        <v>17</v>
+      <c r="R19">
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1567,8 +1570,8 @@
       <c r="Q20">
         <v>151</v>
       </c>
-      <c r="R20" t="s">
-        <v>17</v>
+      <c r="R20">
+        <v>150.33333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -1623,8 +1626,8 @@
       <c r="Q21">
         <v>141</v>
       </c>
-      <c r="R21" t="s">
-        <v>17</v>
+      <c r="R21">
+        <v>148.06666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1679,8 +1682,8 @@
       <c r="Q22">
         <v>165</v>
       </c>
-      <c r="R22" t="s">
-        <v>17</v>
+      <c r="R22">
+        <v>156.93333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1735,8 +1738,8 @@
       <c r="Q23">
         <v>154</v>
       </c>
-      <c r="R23" t="s">
-        <v>17</v>
+      <c r="R23">
+        <v>159.4</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -1791,8 +1794,8 @@
       <c r="Q24">
         <v>176</v>
       </c>
-      <c r="R24" t="s">
-        <v>17</v>
+      <c r="R24">
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -1847,8 +1850,8 @@
       <c r="Q25">
         <v>157</v>
       </c>
-      <c r="R25" t="s">
-        <v>17</v>
+      <c r="R25">
+        <v>168.93333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -1903,8 +1906,8 @@
       <c r="Q26">
         <v>168</v>
       </c>
-      <c r="R26" t="s">
-        <v>17</v>
+      <c r="R26">
+        <v>177.4</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -1959,8 +1962,8 @@
       <c r="Q27">
         <v>138</v>
       </c>
-      <c r="R27" t="s">
-        <v>17</v>
+      <c r="R27">
+        <v>171.73333333333332</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2015,8 +2018,8 @@
       <c r="Q28">
         <v>199</v>
       </c>
-      <c r="R28" t="s">
-        <v>17</v>
+      <c r="R28">
+        <v>188.13333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -2071,8 +2074,8 @@
       <c r="Q29">
         <v>198</v>
       </c>
-      <c r="R29" t="s">
-        <v>17</v>
+      <c r="R29">
+        <v>193.06666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2127,8 +2130,8 @@
       <c r="Q30">
         <v>197</v>
       </c>
-      <c r="R30" t="s">
-        <v>17</v>
+      <c r="R30">
+        <v>189.06666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2183,8 +2186,8 @@
       <c r="Q31">
         <v>185</v>
       </c>
-      <c r="R31" t="s">
-        <v>17</v>
+      <c r="R31">
+        <v>191.73333333333332</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2239,8 +2242,8 @@
       <c r="Q32">
         <v>197</v>
       </c>
-      <c r="R32" t="s">
-        <v>17</v>
+      <c r="R32">
+        <v>203.8</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2295,8 +2298,8 @@
       <c r="Q33">
         <v>174</v>
       </c>
-      <c r="R33" t="s">
-        <v>17</v>
+      <c r="R33">
+        <v>199.73333333333332</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2351,8 +2354,8 @@
       <c r="Q34">
         <v>212</v>
       </c>
-      <c r="R34" t="s">
-        <v>17</v>
+      <c r="R34">
+        <v>207.46666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2407,8 +2410,8 @@
       <c r="Q35">
         <v>227</v>
       </c>
-      <c r="R35" t="s">
-        <v>17</v>
+      <c r="R35">
+        <v>212.26666666666668</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -2463,8 +2466,8 @@
       <c r="Q36">
         <v>222</v>
       </c>
-      <c r="R36" t="s">
-        <v>17</v>
+      <c r="R36">
+        <v>229.46666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -2519,8 +2522,8 @@
       <c r="Q37">
         <v>239</v>
       </c>
-      <c r="R37" t="s">
-        <v>17</v>
+      <c r="R37">
+        <v>236.8</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -2575,8 +2578,8 @@
       <c r="Q38">
         <v>239</v>
       </c>
-      <c r="R38" t="s">
-        <v>17</v>
+      <c r="R38">
+        <v>253.86666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -2631,8 +2634,8 @@
       <c r="Q39">
         <v>264</v>
       </c>
-      <c r="R39" t="s">
-        <v>17</v>
+      <c r="R39">
+        <v>261.53333333333336</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -2687,8 +2690,8 @@
       <c r="Q40">
         <v>299</v>
       </c>
-      <c r="R40" t="s">
-        <v>17</v>
+      <c r="R40">
+        <v>288.2</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -2743,8 +2746,8 @@
       <c r="Q41">
         <v>214</v>
       </c>
-      <c r="R41" t="s">
-        <v>17</v>
+      <c r="R41">
+        <v>237.8</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2799,8 +2802,8 @@
       <c r="Q42">
         <v>229</v>
       </c>
-      <c r="R42" t="s">
-        <v>17</v>
+      <c r="R42">
+        <v>212.2</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -2855,8 +2858,8 @@
       <c r="Q43">
         <v>183</v>
       </c>
-      <c r="R43" t="s">
-        <v>17</v>
+      <c r="R43">
+        <v>201.93333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -2911,8 +2914,8 @@
       <c r="Q44">
         <v>218</v>
       </c>
-      <c r="R44" t="s">
-        <v>17</v>
+      <c r="R44">
+        <v>225.6</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -2967,8 +2970,8 @@
       <c r="Q45">
         <v>213</v>
       </c>
-      <c r="R45" t="s">
-        <v>17</v>
+      <c r="R45">
+        <v>231.26666666666668</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -3023,8 +3026,8 @@
       <c r="Q46">
         <v>260</v>
       </c>
-      <c r="R46" t="s">
-        <v>17</v>
+      <c r="R46">
+        <v>239.06666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -3079,8 +3082,8 @@
       <c r="Q47">
         <v>222</v>
       </c>
-      <c r="R47" t="s">
-        <v>17</v>
+      <c r="R47">
+        <v>255.6</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -3135,8 +3138,8 @@
       <c r="Q48">
         <v>224</v>
       </c>
-      <c r="R48" t="s">
-        <v>17</v>
+      <c r="R48">
+        <v>263.60000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -3191,8 +3194,8 @@
       <c r="Q49">
         <v>243</v>
       </c>
-      <c r="R49" t="s">
-        <v>17</v>
+      <c r="R49">
+        <v>267.86666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -3247,8 +3250,8 @@
       <c r="Q50">
         <v>270</v>
       </c>
-      <c r="R50" t="s">
-        <v>17</v>
+      <c r="R50">
+        <v>270.86666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -3303,8 +3306,8 @@
       <c r="Q51">
         <v>227</v>
       </c>
-      <c r="R51" t="s">
-        <v>17</v>
+      <c r="R51">
+        <v>278.2</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -3359,8 +3362,8 @@
       <c r="Q52">
         <v>271</v>
       </c>
-      <c r="R52" t="s">
-        <v>17</v>
+      <c r="R52">
+        <v>299.86666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -3415,8 +3418,8 @@
       <c r="Q53">
         <v>247</v>
       </c>
-      <c r="R53" t="s">
-        <v>17</v>
+      <c r="R53">
+        <v>282.2</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -3471,8 +3474,8 @@
       <c r="Q54">
         <v>279</v>
       </c>
-      <c r="R54" t="s">
-        <v>17</v>
+      <c r="R54">
+        <v>278.86666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -3527,8 +3530,8 @@
       <c r="Q55">
         <v>291</v>
       </c>
-      <c r="R55" t="s">
-        <v>17</v>
+      <c r="R55">
+        <v>286.60000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -3583,8 +3586,8 @@
       <c r="Q56">
         <v>301</v>
       </c>
-      <c r="R56" t="s">
-        <v>17</v>
+      <c r="R56">
+        <v>279.46666666666664</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -3639,8 +3642,8 @@
       <c r="Q57">
         <v>287</v>
       </c>
-      <c r="R57" t="s">
-        <v>17</v>
+      <c r="R57">
+        <v>293.2</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -3695,8 +3698,8 @@
       <c r="Q58">
         <v>297</v>
       </c>
-      <c r="R58" t="s">
-        <v>17</v>
+      <c r="R58">
+        <v>286.46666666666664</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
@@ -3751,8 +3754,8 @@
       <c r="Q59">
         <v>247</v>
       </c>
-      <c r="R59" t="s">
-        <v>17</v>
+      <c r="R59">
+        <v>286.39999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -3807,8 +3810,8 @@
       <c r="Q60">
         <v>254</v>
       </c>
-      <c r="R60" t="s">
-        <v>17</v>
+      <c r="R60">
+        <v>317.66666666666669</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
@@ -3863,8 +3866,8 @@
       <c r="Q61">
         <v>250</v>
       </c>
-      <c r="R61" t="s">
-        <v>17</v>
+      <c r="R61">
+        <v>315.93333333333334</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -3919,8 +3922,8 @@
       <c r="Q62">
         <v>262</v>
       </c>
-      <c r="R62" t="s">
-        <v>17</v>
+      <c r="R62">
+        <v>307.53333333333336</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -3975,8 +3978,8 @@
       <c r="Q63">
         <v>229</v>
       </c>
-      <c r="R63" t="s">
-        <v>17</v>
+      <c r="R63">
+        <v>312.93333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
@@ -4031,8 +4034,8 @@
       <c r="Q64">
         <v>253</v>
       </c>
-      <c r="R64" t="s">
-        <v>17</v>
+      <c r="R64">
+        <v>329.53333333333336</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -4087,8 +4090,8 @@
       <c r="Q65">
         <v>250</v>
       </c>
-      <c r="R65" t="s">
-        <v>17</v>
+      <c r="R65">
+        <v>326.13333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
@@ -4143,8 +4146,8 @@
       <c r="Q66">
         <v>249</v>
       </c>
-      <c r="R66" t="s">
-        <v>17</v>
+      <c r="R66">
+        <v>334.33333333333331</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -4199,8 +4202,8 @@
       <c r="Q67">
         <v>244</v>
       </c>
-      <c r="R67" t="s">
-        <v>17</v>
+      <c r="R67">
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
@@ -4255,8 +4258,8 @@
       <c r="Q68">
         <v>268</v>
       </c>
-      <c r="R68" t="s">
-        <v>17</v>
+      <c r="R68">
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
@@ -4311,8 +4314,8 @@
       <c r="Q69">
         <v>245</v>
       </c>
-      <c r="R69" t="s">
-        <v>17</v>
+      <c r="R69">
+        <v>333.06666666666666</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
@@ -4367,8 +4370,8 @@
       <c r="Q70">
         <v>234</v>
       </c>
-      <c r="R70" t="s">
-        <v>17</v>
+      <c r="R70">
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -4423,8 +4426,8 @@
       <c r="Q71">
         <v>218</v>
       </c>
-      <c r="R71" t="s">
-        <v>17</v>
+      <c r="R71">
+        <v>317.46666666666664</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
@@ -4479,8 +4482,8 @@
       <c r="Q72">
         <v>242</v>
       </c>
-      <c r="R72" t="s">
-        <v>17</v>
+      <c r="R72">
+        <v>331.13333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
@@ -4535,8 +4538,8 @@
       <c r="Q73">
         <v>245</v>
       </c>
-      <c r="R73" t="s">
-        <v>17</v>
+      <c r="R73">
+        <v>328.4</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -4591,8 +4594,8 @@
       <c r="Q74">
         <v>236</v>
       </c>
-      <c r="R74" t="s">
-        <v>17</v>
+      <c r="R74">
+        <v>338.86666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -4647,8 +4650,8 @@
       <c r="Q75">
         <v>240</v>
       </c>
-      <c r="R75" t="s">
-        <v>17</v>
+      <c r="R75">
+        <v>342.53333333333336</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -4703,8 +4706,8 @@
       <c r="Q76">
         <v>246</v>
       </c>
-      <c r="R76" t="s">
-        <v>17</v>
+      <c r="R76">
+        <v>354.86666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -4759,8 +4762,8 @@
       <c r="Q77">
         <v>230</v>
       </c>
-      <c r="R77" t="s">
-        <v>17</v>
+      <c r="R77">
+        <v>356.26666666666665</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -4815,8 +4818,8 @@
       <c r="Q78">
         <v>260</v>
       </c>
-      <c r="R78" t="s">
-        <v>17</v>
+      <c r="R78">
+        <v>362.8</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
@@ -4871,8 +4874,8 @@
       <c r="Q79">
         <v>227</v>
       </c>
-      <c r="R79" t="s">
-        <v>17</v>
+      <c r="R79">
+        <v>367.4</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
@@ -4927,8 +4930,8 @@
       <c r="Q80">
         <v>257</v>
       </c>
-      <c r="R80" t="s">
-        <v>17</v>
+      <c r="R80">
+        <v>372.6</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -4983,8 +4986,8 @@
       <c r="Q81">
         <v>258</v>
       </c>
-      <c r="R81" t="s">
-        <v>17</v>
+      <c r="R81">
+        <v>370.33333333333331</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -5039,8 +5042,8 @@
       <c r="Q82">
         <v>230</v>
       </c>
-      <c r="R82" t="s">
-        <v>17</v>
+      <c r="R82">
+        <v>367.4</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -5095,8 +5098,8 @@
       <c r="Q83">
         <v>253</v>
       </c>
-      <c r="R83" t="s">
-        <v>17</v>
+      <c r="R83">
+        <v>365.26666666666665</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -5151,8 +5154,8 @@
       <c r="Q84">
         <v>241</v>
       </c>
-      <c r="R84" t="s">
-        <v>17</v>
+      <c r="R84">
+        <v>376.93333333333334</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -5207,8 +5210,8 @@
       <c r="Q85">
         <v>253</v>
       </c>
-      <c r="R85" t="s">
-        <v>17</v>
+      <c r="R85">
+        <v>363.73333333333335</v>
       </c>
     </row>
   </sheetData>
